--- a/output/fit_clients/fit_round_142.xlsx
+++ b/output/fit_clients/fit_round_142.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1638332969.944053</v>
+        <v>1688139687.018017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.091946919289842</v>
+        <v>0.1083498796167474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03004081821914937</v>
+        <v>0.02950654562075314</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>819166431.9234686</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1656412085.316067</v>
+        <v>2123658969.066606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1649376391565922</v>
+        <v>0.1444520497397333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03221477446412149</v>
+        <v>0.04112239653429951</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>828206029.4644408</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3825509692.501919</v>
+        <v>5154526039.708519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1366065817779495</v>
+        <v>0.1308387619589178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02699650494177668</v>
+        <v>0.02551098638650662</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1912754848.02791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3350719333.806188</v>
+        <v>3543884638.271822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06670396201394006</v>
+        <v>0.09365356700970037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03075118914308089</v>
+        <v>0.04546710469852653</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1675359713.480319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2021693163.085408</v>
+        <v>2406636062.752177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1322325881377261</v>
+        <v>0.1358302191449196</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04883259658412919</v>
+        <v>0.04038158614922698</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1010846608.753408</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2055082160.962485</v>
+        <v>2574100819.69587</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08322666928920809</v>
+        <v>0.1012695957644249</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03230624157404794</v>
+        <v>0.03239724635600819</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1027541136.304073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2939149239.000574</v>
+        <v>2440691564.417122</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499576285812387</v>
+        <v>0.1906410251931912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02880654811679942</v>
+        <v>0.03251302626797611</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1469574670.753163</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2301585120.947547</v>
+        <v>1953672391.178914</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1646441305212587</v>
+        <v>0.1387699962019823</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02933494885260457</v>
+        <v>0.03428977049202653</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1150792545.201938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5231734665.247581</v>
+        <v>4405906197.057699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1761617693043233</v>
+        <v>0.1768066716102007</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03609266290039166</v>
+        <v>0.0336413308716666</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>60</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2615867449.819916</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3317195691.153491</v>
+        <v>4012727272.276769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1798830211779619</v>
+        <v>0.14454608301161</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04961632091580381</v>
+        <v>0.03277220602850915</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>59</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1658597810.598534</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2243414749.401313</v>
+        <v>2138370445.117928</v>
       </c>
       <c r="F12" t="n">
-        <v>0.154920358142015</v>
+        <v>0.1881225495207394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04362733686737268</v>
+        <v>0.03696276129460473</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1121707323.376803</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4950958804.667722</v>
+        <v>3600660632.311243</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09862889114730546</v>
+        <v>0.09793040888410448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01938753373110641</v>
+        <v>0.02222511180373086</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2475479408.918903</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3862972967.674759</v>
+        <v>3321958284.821132</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1721043273678027</v>
+        <v>0.1829756014606841</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04370231228208918</v>
+        <v>0.03695207600522005</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1931486455.744599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1389370349.409827</v>
+        <v>1723138657.108126</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08049437591787954</v>
+        <v>0.1016485266498602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03045861438220044</v>
+        <v>0.03359752686366283</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>694685235.0828385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1814849854.784984</v>
+        <v>2250959568.392797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103134115747792</v>
+        <v>0.1007413448340077</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03916228964624318</v>
+        <v>0.04601507906151209</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>907425019.3866348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3624994646.724241</v>
+        <v>4175474452.146335</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1293430135393735</v>
+        <v>0.1522751721396976</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04641915680556675</v>
+        <v>0.04073010509805803</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1812497376.465023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3742461907.082469</v>
+        <v>3575607003.821295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1523425871848373</v>
+        <v>0.1432295216476396</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02446945277897809</v>
+        <v>0.02363865137003048</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>46</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1871230930.004213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>897118262.2908956</v>
+        <v>1186884321.197173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1885379022905952</v>
+        <v>0.178033266581884</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0239346621426522</v>
+        <v>0.02403487141625487</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>448559135.2869169</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1690530804.151087</v>
+        <v>2812049025.600228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1202973433825403</v>
+        <v>0.1204984024670824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02490933399956174</v>
+        <v>0.02710376188097155</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>845265461.3368524</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1887702384.419384</v>
+        <v>2110493421.723333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0853054551641666</v>
+        <v>0.08307925044538948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04515936398141609</v>
+        <v>0.0372161482416102</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>943851238.8231163</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3803078044.327609</v>
+        <v>3446036427.228256</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1382594804133035</v>
+        <v>0.1030213136785379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04553831454516987</v>
+        <v>0.05315045387897724</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1901539035.559719</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1318974200.112061</v>
+        <v>1458554177.545176</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1175213137931088</v>
+        <v>0.178022651610085</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0458907173106427</v>
+        <v>0.04214854990587693</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>659487116.4603386</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2532890236.148618</v>
+        <v>3623025542.109871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054574709741166</v>
+        <v>0.1118217268467462</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03014301499981094</v>
+        <v>0.03361077671990235</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1266445184.699599</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1453844758.193999</v>
+        <v>1079286044.77674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1077823992600909</v>
+        <v>0.1223089752078129</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01959447518055213</v>
+        <v>0.02047845281480964</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>726922338.6261914</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>927609718.9468857</v>
+        <v>1316582877.891983</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1237881110106091</v>
+        <v>0.1027400609871707</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02843820744990599</v>
+        <v>0.03196271583729499</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>463804813.7674432</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3340389142.551884</v>
+        <v>4634638979.624662</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113476377592691</v>
+        <v>0.1565815709528481</v>
       </c>
       <c r="G27" t="n">
-        <v>0.024582499271299</v>
+        <v>0.01887139125234185</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1670194614.179428</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3894846998.324336</v>
+        <v>3689241858.561389</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1034542102579771</v>
+        <v>0.09644531141070115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03210188793195536</v>
+        <v>0.03654720233154547</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>46</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1947423588.012511</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4874653038.479314</v>
+        <v>4393281190.365801</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1257006166016526</v>
+        <v>0.1457665000680533</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04613767535105112</v>
+        <v>0.02813970419285057</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2437326475.411167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1489661950.937427</v>
+        <v>2019961458.558228</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1117019632242088</v>
+        <v>0.1222406314200956</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02789287592970688</v>
+        <v>0.03860326470922804</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>744830954.7949725</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1342461614.032981</v>
+        <v>1368384238.474427</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07326611354804627</v>
+        <v>0.08376496372910439</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03860406017158084</v>
+        <v>0.04502846710322085</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>671230724.9161793</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1578853555.776441</v>
+        <v>1779559216.939592</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08069616091332593</v>
+        <v>0.1144342317125777</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03746257310450825</v>
+        <v>0.03869198864247592</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>789426862.5435846</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2251045331.323698</v>
+        <v>2809480772.593226</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1927322063746671</v>
+        <v>0.2083293451017185</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05913114532357646</v>
+        <v>0.05104369052549659</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1125522725.032022</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153686863.446977</v>
+        <v>1323378398.477714</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07749980623195693</v>
+        <v>0.1173373298398896</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02281020119125182</v>
+        <v>0.0243300196017257</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>576843444.3756963</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1232018461.36203</v>
+        <v>1195812175.189278</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08239896138813854</v>
+        <v>0.09936695403746</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03045049110816536</v>
+        <v>0.02902652963343755</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>616009198.3358718</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2347940399.808858</v>
+        <v>2343679290.51219</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1616529576464329</v>
+        <v>0.1621305256043347</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02648827280693145</v>
+        <v>0.0180832890237584</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1173970234.030097</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1982414897.298194</v>
+        <v>2804494205.945449</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1013794174153214</v>
+        <v>0.1085526102544102</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02619460269722966</v>
+        <v>0.02564903599452881</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>39</v>
-      </c>
-      <c r="J37" t="n">
-        <v>991207473.45739</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1662765705.180844</v>
+        <v>1677712434.176437</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1198907378550152</v>
+        <v>0.07440422870867529</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0297208553981408</v>
+        <v>0.03584365638546422</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>831382878.8125256</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1874606524.078187</v>
+        <v>1579199034.747378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1175146715539846</v>
+        <v>0.1358539163547888</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03272520113870036</v>
+        <v>0.02527601536732941</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>937303275.5596532</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1351977623.305785</v>
+        <v>1449537903.192407</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1137728324393205</v>
+        <v>0.1489650270074226</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05371521261443204</v>
+        <v>0.05178018351975087</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>675988814.8618565</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2733844162.619559</v>
+        <v>2833254903.63723</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11460517878011</v>
+        <v>0.1603837424030879</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03769056234106986</v>
+        <v>0.03605322180402152</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1366922083.637964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3886504261.782245</v>
+        <v>3618271118.922996</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1159590602496035</v>
+        <v>0.08836680668560641</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03800688188774329</v>
+        <v>0.03308321391077184</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>47</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1943252152.308011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3031330804.427892</v>
+        <v>2290183479.726637</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1602006960508824</v>
+        <v>0.1721346910444936</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01866526344733772</v>
+        <v>0.02286855855756548</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1515665397.419517</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2294262107.820053</v>
+        <v>1597478380.648551</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07946020825494329</v>
+        <v>0.09797992275899975</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03245984309076756</v>
+        <v>0.02312299644257931</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1147131218.919607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2537437747.852296</v>
+        <v>2497180704.199962</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1366141049961443</v>
+        <v>0.1490549662156108</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05110562930449206</v>
+        <v>0.03883317328686965</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1268718918.878428</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5192225115.468086</v>
+        <v>3691330883.78814</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1503750611655887</v>
+        <v>0.1541949198147796</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0448783466309413</v>
+        <v>0.05644246969433838</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>50</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2596112595.494041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4440413589.066814</v>
+        <v>4441558110.005405</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621499363133073</v>
+        <v>0.1939036649691715</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03806178513175958</v>
+        <v>0.04307128655162546</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>38</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2220206818.613086</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2938002599.413851</v>
+        <v>3225735214.895528</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08395359095471126</v>
+        <v>0.08075630177603263</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03521718062920618</v>
+        <v>0.03526302146412635</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1469001395.734007</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1278171500.24744</v>
+        <v>1234479635.356421</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689652560607068</v>
+        <v>0.1261730520582905</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04187294221963169</v>
+        <v>0.04330461206276007</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>639085816.6061196</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3392857824.809116</v>
+        <v>3608518906.922686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1136071493718426</v>
+        <v>0.1195857477563598</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03660276572259755</v>
+        <v>0.04744784873657983</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>48</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1696428944.246467</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1289147793.110533</v>
+        <v>1273512188.533381</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1350392718521616</v>
+        <v>0.1776602381448041</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04011651726286834</v>
+        <v>0.04005142390642703</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>644573933.6303108</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4002111760.735972</v>
+        <v>3541146160.838895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1246594045560399</v>
+        <v>0.1107922454283398</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05412775599814629</v>
+        <v>0.047362934542599</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>59</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2001055936.682679</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2539221618.515527</v>
+        <v>3027276768.722117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1654059773321014</v>
+        <v>0.172346351871883</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02171205152761252</v>
+        <v>0.02264449965135285</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1269610873.427043</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3576703131.678942</v>
+        <v>3994413931.510123</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1161013338720971</v>
+        <v>0.1035716639855831</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05111250212317184</v>
+        <v>0.05031760499744013</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1788351596.646181</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3729403182.492532</v>
+        <v>4867316771.456267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1936948351438923</v>
+        <v>0.2167555376857348</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02710452174147292</v>
+        <v>0.03010908943457691</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1864701554.15102</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1652632795.206868</v>
+        <v>1785454571.475061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1081903851528215</v>
+        <v>0.1576343742540315</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03802862588728734</v>
+        <v>0.03888197064866487</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>826316417.2161274</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4243375792.080502</v>
+        <v>2991131889.15275</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1629702025424308</v>
+        <v>0.111047654742199</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01869221257232378</v>
+        <v>0.02168713923121011</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>45</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2121688004.79721</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1779451911.928172</v>
+        <v>1199313359.51337</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1330118379963398</v>
+        <v>0.1712066629054231</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03361462976183566</v>
+        <v>0.03620322300931687</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>889725961.5595751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5406639549.840471</v>
+        <v>4693630913.862356</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1078060485284587</v>
+        <v>0.08758104816149966</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03981738931431372</v>
+        <v>0.03778006200174287</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2703319682.964606</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3640069873.842322</v>
+        <v>3078643610.790932</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1696803642072403</v>
+        <v>0.1649217435819698</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02505484059688244</v>
+        <v>0.02670000331673051</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1820035074.357151</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2765448478.603025</v>
+        <v>2444828856.65073</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1796252398732905</v>
+        <v>0.1515505687719118</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02977916808103612</v>
+        <v>0.02231522592390528</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>49</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1382724241.846587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1876461301.088838</v>
+        <v>1987253752.578959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1455111168790388</v>
+        <v>0.1245755582694544</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03208412258302303</v>
+        <v>0.03716340836135111</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>938230690.0378348</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4816358134.59523</v>
+        <v>4747475882.255607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1042020164928624</v>
+        <v>0.1020637961373965</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03165096919189853</v>
+        <v>0.04100507604573171</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2408179093.229907</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5062859873.926656</v>
+        <v>5405237977.697925</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1408599944325706</v>
+        <v>0.1910708577324671</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03065233109987738</v>
+        <v>0.02512541485023638</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>44</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2531430047.535876</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5227486873.32317</v>
+        <v>3950061717.737684</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1582537843424702</v>
+        <v>0.121861256191815</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02665042641964004</v>
+        <v>0.02226850225259648</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2613743381.967345</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5026489190.459531</v>
+        <v>5348115439.295526</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534145461456678</v>
+        <v>0.1545727936182564</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03658961400958342</v>
+        <v>0.03371605434351252</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2513244623.742177</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2420517095.249559</v>
+        <v>3347665299.040327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08763952354227697</v>
+        <v>0.0650623533284808</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03390001320187407</v>
+        <v>0.03373807152575724</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1210258614.925204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3888089583.820106</v>
+        <v>3878811606.060546</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1430530932770789</v>
+        <v>0.1181831087143898</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03822495494274606</v>
+        <v>0.04770764988911799</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>45</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1944044780.881814</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1983940344.122356</v>
+        <v>1734025820.282512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.12440703443685</v>
+        <v>0.1132254204929142</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05549254237835143</v>
+        <v>0.05172441412677038</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>991970174.8852576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2754413881.084079</v>
+        <v>2482961641.367929</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06533794006642431</v>
+        <v>0.08268418032618759</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04756825072974336</v>
+        <v>0.03096933334158514</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>41</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1377206901.574299</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4620200341.6568</v>
+        <v>5377559365.461654</v>
       </c>
       <c r="F71" t="n">
-        <v>0.174465401695292</v>
+        <v>0.1195599155632947</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02362143470370754</v>
+        <v>0.03041959041760135</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>52</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2310100248.157702</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2097079394.278269</v>
+        <v>1646059345.712398</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1024638519835042</v>
+        <v>0.07416640450211494</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03325879469311872</v>
+        <v>0.05297453704005944</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1048539627.754824</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3194688280.150566</v>
+        <v>2544346580.283388</v>
       </c>
       <c r="F73" t="n">
-        <v>0.112749345455717</v>
+        <v>0.07738922490497126</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0390915045572506</v>
+        <v>0.04902436958916833</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>54</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1597344118.195639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3280981214.323383</v>
+        <v>3354824134.739281</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1364071375170727</v>
+        <v>0.1770260929148102</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03423503046383949</v>
+        <v>0.02905193918736908</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>48</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1640490648.249964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2029553155.455054</v>
+        <v>2432490742.83197</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1188165688980852</v>
+        <v>0.1192115014285312</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02865865195354758</v>
+        <v>0.0309031505002592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1014776539.070516</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4088501268.721533</v>
+        <v>5278899247.676415</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1182600792342801</v>
+        <v>0.08782034665857108</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02983917139095719</v>
+        <v>0.03432897683148364</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2044250622.71479</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1435162241.502495</v>
+        <v>1916283581.06407</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1656751608939926</v>
+        <v>0.1830448372046562</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02729503954236141</v>
+        <v>0.02577316034287971</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>717581098.8576428</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4316291227.513094</v>
+        <v>3609114585.536891</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08513537882957443</v>
+        <v>0.08422759946268073</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04326503645108176</v>
+        <v>0.0384533763629567</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>49</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2158145556.805286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1648798740.739652</v>
+        <v>1919514092.398817</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763614320813072</v>
+        <v>0.1474993301944678</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02809888761046655</v>
+        <v>0.03811857163515683</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>824399430.561442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4854509658.550134</v>
+        <v>4359659954.94956</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103919065124135</v>
+        <v>0.06828723065048652</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03854985679757679</v>
+        <v>0.02371613411896858</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2427254871.207894</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3437174393.406129</v>
+        <v>3466542644.398447</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09549772713014311</v>
+        <v>0.1058760776152525</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02422137787383052</v>
+        <v>0.02133013331510281</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>34</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1718587138.975113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3597703768.132593</v>
+        <v>5667750345.022908</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2005737156502997</v>
+        <v>0.1546384875111965</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02620615087941031</v>
+        <v>0.02522976606420747</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1798851946.254455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1569820849.908044</v>
+        <v>2285397726.012907</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1209613795392965</v>
+        <v>0.1517106986156338</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03068824634943104</v>
+        <v>0.04228072242888716</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>784910356.70938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1764788508.724817</v>
+        <v>2483544318.569783</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07533012669873963</v>
+        <v>0.08199837974422333</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04962386785637989</v>
+        <v>0.05046272956607126</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>882394293.7681586</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2597940131.396977</v>
+        <v>3449747048.027536</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1377862994410432</v>
+        <v>0.1284469248133427</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0440472020729787</v>
+        <v>0.04850218657730072</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>54</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1298970081.43909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1954266671.420927</v>
+        <v>1705175134.790092</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1697352164425262</v>
+        <v>0.1181136902582257</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02061523721529883</v>
+        <v>0.01835875379081862</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>977133356.9107368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375519899.100973</v>
+        <v>1489135770.588874</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1219110468619814</v>
+        <v>0.1725973291971987</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04320959712995606</v>
+        <v>0.04396136690381423</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687760050.0849814</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2336141215.76893</v>
+        <v>2479729548.081042</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1121083610187869</v>
+        <v>0.1186734755935456</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0241303626366449</v>
+        <v>0.03720221814178132</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>56</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1168070572.688965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2898345581.814182</v>
+        <v>3327377513.414851</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09703469909186417</v>
+        <v>0.1071754709483833</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03482382806158338</v>
+        <v>0.02600164629199185</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1449172836.438416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1416460166.444635</v>
+        <v>1464731606.475606</v>
       </c>
       <c r="F90" t="n">
-        <v>0.124458051056023</v>
+        <v>0.08539425834808513</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05010032665762933</v>
+        <v>0.0349013585044427</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>708230046.597002</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1717595813.115445</v>
+        <v>1547582904.480006</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1787525132993637</v>
+        <v>0.12308397865013</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05892075121162108</v>
+        <v>0.04515732615736243</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>858797916.4260191</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2924476123.799388</v>
+        <v>2054651345.211273</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003336255556722</v>
+        <v>0.09791704466986788</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03695331659556675</v>
+        <v>0.04272882167693551</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1462238077.894495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4005546472.337978</v>
+        <v>4666557964.002493</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08600627595285525</v>
+        <v>0.09238463494536051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04378894751494555</v>
+        <v>0.0436181842947559</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2002773236.40287</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1543218005.746862</v>
+        <v>1599835518.403399</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1365933722373177</v>
+        <v>0.1022812102641711</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04168972388446962</v>
+        <v>0.03313024031303013</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>771608941.7012172</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3241506967.964103</v>
+        <v>2313440557.535279</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09758152684543074</v>
+        <v>0.1303375996364536</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03505253443386475</v>
+        <v>0.05215815092792847</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1620753466.087682</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1918504385.374056</v>
+        <v>1906562159.318508</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1280074183773569</v>
+        <v>0.1259855238114689</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03619127979679287</v>
+        <v>0.04136897338798762</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>959252188.3123267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4488953219.346488</v>
+        <v>4834180687.75366</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1487554976232826</v>
+        <v>0.1421967951288654</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02314975173579558</v>
+        <v>0.0209232543824714</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2244476705.322496</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3506563718.669706</v>
+        <v>3320488089.662248</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09212135945416247</v>
+        <v>0.08305621809322417</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02110524457789571</v>
+        <v>0.0199577607057985</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>37</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1753281878.335486</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2770483660.925609</v>
+        <v>3113133136.491314</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1045342881599785</v>
+        <v>0.1240191871172156</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02536658072254134</v>
+        <v>0.02476656857361682</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>45</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1385241799.747436</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3972444241.504239</v>
+        <v>3386021480.614513</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1478250938655902</v>
+        <v>0.1770590731487687</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02572408090905883</v>
+        <v>0.02597597990016031</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>44</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1986222189.182839</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2797158284.346644</v>
+        <v>3094617018.185179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1369818723944984</v>
+        <v>0.1941285727373114</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05772101412234738</v>
+        <v>0.03558989603279446</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>58</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1398579204.386272</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_142.xlsx
+++ b/output/fit_clients/fit_round_142.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1688139687.018017</v>
+        <v>1722153509.500648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1083498796167474</v>
+        <v>0.1037877987913893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02950654562075314</v>
+        <v>0.02749744863593284</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2123658969.066606</v>
+        <v>2349154956.210533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1444520497397333</v>
+        <v>0.1534042983425953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04112239653429951</v>
+        <v>0.03619093950806458</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5154526039.708519</v>
+        <v>4623112225.346057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1308387619589178</v>
+        <v>0.1232264037052629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02551098638650662</v>
+        <v>0.0372030018239183</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543884638.271822</v>
+        <v>3667394049.739392</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09365356700970037</v>
+        <v>0.07028352713567437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04546710469852653</v>
+        <v>0.04293675638986785</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2406636062.752177</v>
+        <v>2393764824.193978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1358302191449196</v>
+        <v>0.1167991320417679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04038158614922698</v>
+        <v>0.03644013837332089</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2574100819.69587</v>
+        <v>2313411688.663736</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012695957644249</v>
+        <v>0.09193284405672714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03239724635600819</v>
+        <v>0.04643810164096879</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2440691564.417122</v>
+        <v>2426907227.591235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906410251931912</v>
+        <v>0.1941788091176298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03251302626797611</v>
+        <v>0.02179224026477696</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1953672391.178914</v>
+        <v>2138893848.462326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1387699962019823</v>
+        <v>0.1424085915662212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03428977049202653</v>
+        <v>0.0291391807331422</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4405906197.057699</v>
+        <v>5097953323.379766</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1768066716102007</v>
+        <v>0.1741043433563038</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0336413308716666</v>
+        <v>0.03703504058106488</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4012727272.276769</v>
+        <v>2907305233.753492</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14454608301161</v>
+        <v>0.1675373855078617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03277220602850915</v>
+        <v>0.04516095179513768</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2138370445.117928</v>
+        <v>2345881577.041054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1881225495207394</v>
+        <v>0.1917074974788314</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03696276129460473</v>
+        <v>0.03712122906033827</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3600660632.311243</v>
+        <v>3637430502.562498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09793040888410448</v>
+        <v>0.06703560445342252</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02222511180373086</v>
+        <v>0.02324549964193216</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3321958284.821132</v>
+        <v>3549011256.634606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1829756014606841</v>
+        <v>0.1508611216651496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03695207600522005</v>
+        <v>0.03154882526952819</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1723138657.108126</v>
+        <v>1618131286.055354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1016485266498602</v>
+        <v>0.07548388967879065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03359752686366283</v>
+        <v>0.04606158840364444</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2250959568.392797</v>
+        <v>2547983499.428741</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1007413448340077</v>
+        <v>0.0710437908761371</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04601507906151209</v>
+        <v>0.04283279599258025</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4175474452.146335</v>
+        <v>4214907455.702306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1522751721396976</v>
+        <v>0.1300710759457246</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04073010509805803</v>
+        <v>0.03618556760503987</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3575607003.821295</v>
+        <v>3487091321.454822</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1432295216476396</v>
+        <v>0.1362885469735421</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02363865137003048</v>
+        <v>0.02400928622360257</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1186884321.197173</v>
+        <v>1308772717.653907</v>
       </c>
       <c r="F19" t="n">
-        <v>0.178033266581884</v>
+        <v>0.126901949610592</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02403487141625487</v>
+        <v>0.01875849309970333</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2812049025.600228</v>
+        <v>1697598825.971836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1204984024670824</v>
+        <v>0.1019514512182746</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02710376188097155</v>
+        <v>0.02491247580986071</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2110493421.723333</v>
+        <v>2515220140.045485</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08307925044538948</v>
+        <v>0.0808472375868001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0372161482416102</v>
+        <v>0.03605777787460416</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3446036427.228256</v>
+        <v>3771006400.775973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1030213136785379</v>
+        <v>0.1338652734609178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05315045387897724</v>
+        <v>0.05317475755898757</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1458554177.545176</v>
+        <v>1525193793.642882</v>
       </c>
       <c r="F23" t="n">
-        <v>0.178022651610085</v>
+        <v>0.131841250387156</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04214854990587693</v>
+        <v>0.04179203118661971</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3623025542.109871</v>
+        <v>3176420744.576533</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1118217268467462</v>
+        <v>0.1006151932113046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03361077671990235</v>
+        <v>0.03511484119082326</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079286044.77674</v>
+        <v>988209933.6622521</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223089752078129</v>
+        <v>0.09544917828374949</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02047845281480964</v>
+        <v>0.02955068188165313</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1316582877.891983</v>
+        <v>1064317272.04671</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1027400609871707</v>
+        <v>0.08481463886933369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03196271583729499</v>
+        <v>0.03291636778628745</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4634638979.624662</v>
+        <v>4082240289.50237</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1565815709528481</v>
+        <v>0.09845793453455584</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01887139125234185</v>
+        <v>0.02615989962243373</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3689241858.561389</v>
+        <v>2546779708.275376</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09644531141070115</v>
+        <v>0.1175508204854852</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03654720233154547</v>
+        <v>0.04057105161861438</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4393281190.365801</v>
+        <v>5344356850.748631</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1457665000680533</v>
+        <v>0.1160049486692294</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02813970419285057</v>
+        <v>0.03085714674727129</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2019961458.558228</v>
+        <v>1497066330.706007</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1222406314200956</v>
+        <v>0.1210759372321092</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03860326470922804</v>
+        <v>0.02802865024983761</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1368384238.474427</v>
+        <v>1436059979.962868</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08376496372910439</v>
+        <v>0.1024748859350196</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04502846710322085</v>
+        <v>0.03719059072866443</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1779559216.939592</v>
+        <v>1297738851.327004</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1144342317125777</v>
+        <v>0.07380957890480469</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03869198864247592</v>
+        <v>0.03374806929303673</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2809480772.593226</v>
+        <v>2808958231.006222</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2083293451017185</v>
+        <v>0.1467635374648169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05104369052549659</v>
+        <v>0.05447953592982969</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323378398.477714</v>
+        <v>1384316263.961293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173373298398896</v>
+        <v>0.1120357393715074</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0243300196017257</v>
+        <v>0.02130763506945589</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1195812175.189278</v>
+        <v>892589815.0927676</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09936695403746</v>
+        <v>0.1148489582311009</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02902652963343755</v>
+        <v>0.0428928327491972</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2343679290.51219</v>
+        <v>2177689106.873429</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1621305256043347</v>
+        <v>0.1561265414331403</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0180832890237584</v>
+        <v>0.02391190106587683</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2804494205.945449</v>
+        <v>2558465329.026878</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1085526102544102</v>
+        <v>0.1009888826397274</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02564903599452881</v>
+        <v>0.04130541497670927</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1677712434.176437</v>
+        <v>1365420471.758881</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07440422870867529</v>
+        <v>0.08720591806619736</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03584365638546422</v>
+        <v>0.02595696250622074</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1579199034.747378</v>
+        <v>1643144869.553196</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1358539163547888</v>
+        <v>0.1805519475236655</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02527601536732941</v>
+        <v>0.02153049178463933</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1449537903.192407</v>
+        <v>1502938511.854866</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1489650270074226</v>
+        <v>0.1149045002505849</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05178018351975087</v>
+        <v>0.05976474945076123</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2833254903.63723</v>
+        <v>1769123056.675995</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1603837424030879</v>
+        <v>0.1317616407419971</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03605322180402152</v>
+        <v>0.04337604453187043</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3618271118.922996</v>
+        <v>4042004799.66369</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08836680668560641</v>
+        <v>0.117714085683257</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03308321391077184</v>
+        <v>0.03605348467671902</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2290183479.726637</v>
+        <v>2507069370.809237</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1721346910444936</v>
+        <v>0.1879585171262281</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02286855855756548</v>
+        <v>0.02176685889814853</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1597478380.648551</v>
+        <v>1592683794.88331</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09797992275899975</v>
+        <v>0.07867586305780985</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02312299644257931</v>
+        <v>0.02868429188382152</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2497180704.199962</v>
+        <v>2497419451.664869</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1490549662156108</v>
+        <v>0.1764425751292603</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03883317328686965</v>
+        <v>0.04076185479391028</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3691330883.78814</v>
+        <v>3706657473.988149</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1541949198147796</v>
+        <v>0.11080386929252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05644246969433838</v>
+        <v>0.03801085323534618</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4441558110.005405</v>
+        <v>4780235175.546136</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1939036649691715</v>
+        <v>0.1906714732337092</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04307128655162546</v>
+        <v>0.05379702416523371</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3225735214.895528</v>
+        <v>3345440601.475247</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08075630177603263</v>
+        <v>0.08955265083791879</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03526302146412635</v>
+        <v>0.03656423339752313</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1234479635.356421</v>
+        <v>1306301999.410157</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1261730520582905</v>
+        <v>0.1448067304248375</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04330461206276007</v>
+        <v>0.03468317011975745</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3608518906.922686</v>
+        <v>4113144629.085449</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1195857477563598</v>
+        <v>0.1777552957681079</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04744784873657983</v>
+        <v>0.0481668661676732</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1273512188.533381</v>
+        <v>1200923874.805761</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1776602381448041</v>
+        <v>0.1734784143607516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04005142390642703</v>
+        <v>0.0520330556052791</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3541146160.838895</v>
+        <v>3692282983.467361</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1107922454283398</v>
+        <v>0.09788974213509333</v>
       </c>
       <c r="G52" t="n">
-        <v>0.047362934542599</v>
+        <v>0.06202068576440799</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3027276768.722117</v>
+        <v>3610948023.463918</v>
       </c>
       <c r="F53" t="n">
-        <v>0.172346351871883</v>
+        <v>0.1763060532217955</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02264449965135285</v>
+        <v>0.0243638938798069</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3994413931.510123</v>
+        <v>4817251666.931078</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1035716639855831</v>
+        <v>0.1244941483323477</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05031760499744013</v>
+        <v>0.03378191783808909</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4867316771.456267</v>
+        <v>3633273191.875661</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2167555376857348</v>
+        <v>0.181530938955737</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03010908943457691</v>
+        <v>0.02518749100804208</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1785454571.475061</v>
+        <v>1180158289.288398</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1576343742540315</v>
+        <v>0.1584739508248302</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03888197064866487</v>
+        <v>0.04652095172711058</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2991131889.15275</v>
+        <v>3268767867.92623</v>
       </c>
       <c r="F57" t="n">
-        <v>0.111047654742199</v>
+        <v>0.1416365549293804</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02168713923121011</v>
+        <v>0.01903489222493149</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1199313359.51337</v>
+        <v>1632949975.00303</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1712066629054231</v>
+        <v>0.1552930679613986</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03620322300931687</v>
+        <v>0.02759390587664965</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4693630913.862356</v>
+        <v>4980966469.847862</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08758104816149966</v>
+        <v>0.09271173691458263</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03778006200174287</v>
+        <v>0.04302737383526845</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3078643610.790932</v>
+        <v>2307476848.199754</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1649217435819698</v>
+        <v>0.1592093916676029</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02670000331673051</v>
+        <v>0.02486036754850646</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2444828856.65073</v>
+        <v>2137067389.656909</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1515505687719118</v>
+        <v>0.1778581467656477</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02231522592390528</v>
+        <v>0.02110635409076097</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1987253752.578959</v>
+        <v>1948792843.795562</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1245755582694544</v>
+        <v>0.1174372184031079</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03716340836135111</v>
+        <v>0.04282630886929951</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4747475882.255607</v>
+        <v>5487842382.614457</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1020637961373965</v>
+        <v>0.07664303313413785</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04100507604573171</v>
+        <v>0.04129516800878137</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5405237977.697925</v>
+        <v>4127735709.486259</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1910708577324671</v>
+        <v>0.1612238429310185</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512541485023638</v>
+        <v>0.02983807719452574</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3950061717.737684</v>
+        <v>3990305628.28056</v>
       </c>
       <c r="F65" t="n">
-        <v>0.121861256191815</v>
+        <v>0.1418528264023224</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02226850225259648</v>
+        <v>0.02827164520075321</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5348115439.295526</v>
+        <v>3979511816.538205</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1545727936182564</v>
+        <v>0.1457530165204645</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03371605434351252</v>
+        <v>0.04638079903362896</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3347665299.040327</v>
+        <v>3290506243.962848</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0650623533284808</v>
+        <v>0.1023759335787446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03373807152575724</v>
+        <v>0.04786494229548309</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3878811606.060546</v>
+        <v>3757148498.485294</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1181831087143898</v>
+        <v>0.1284043294068029</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04770764988911799</v>
+        <v>0.0381364867337249</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1734025820.282512</v>
+        <v>2397396635.199811</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1132254204929142</v>
+        <v>0.1363534542574115</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05172441412677038</v>
+        <v>0.04338529894680881</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2482961641.367929</v>
+        <v>3189508294.75722</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08268418032618759</v>
+        <v>0.06755560517261207</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03096933334158514</v>
+        <v>0.03212371641555809</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5377559365.461654</v>
+        <v>4529934839.067182</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1195599155632947</v>
+        <v>0.1826090918499171</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03041959041760135</v>
+        <v>0.02225853561632899</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1646059345.712398</v>
+        <v>2054621785.120269</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07416640450211494</v>
+        <v>0.08422399633181649</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05297453704005944</v>
+        <v>0.04030113395917386</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2544346580.283388</v>
+        <v>3559659850.092219</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07738922490497126</v>
+        <v>0.0982532301095793</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04902436958916833</v>
+        <v>0.05018891127786452</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3354824134.739281</v>
+        <v>3031294843.186284</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1770260929148102</v>
+        <v>0.166975870315076</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02905193918736908</v>
+        <v>0.02524079307088258</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2432490742.83197</v>
+        <v>1558280101.215266</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1192115014285312</v>
+        <v>0.1339895292961034</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0309031505002592</v>
+        <v>0.0260546579595679</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5278899247.676415</v>
+        <v>4378867442.984505</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08782034665857108</v>
+        <v>0.1138940029292346</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03432897683148364</v>
+        <v>0.02119886517116144</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1916283581.06407</v>
+        <v>2194312433.088644</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1830448372046562</v>
+        <v>0.1275513694247212</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02577316034287971</v>
+        <v>0.02984990520326514</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3609114585.536891</v>
+        <v>4729038953.750692</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08422759946268073</v>
+        <v>0.1108293631638664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0384533763629567</v>
+        <v>0.05497069158225527</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1919514092.398817</v>
+        <v>1407026624.467282</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1474993301944678</v>
+        <v>0.1076507103349122</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03811857163515683</v>
+        <v>0.03442413890482864</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4359659954.94956</v>
+        <v>4642707194.836064</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06828723065048652</v>
+        <v>0.08460345073099433</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02371613411896858</v>
+        <v>0.03062942759329821</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3466542644.398447</v>
+        <v>5082081747.424731</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1058760776152525</v>
+        <v>0.09453873522026288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02133013331510281</v>
+        <v>0.02959709422250362</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5667750345.022908</v>
+        <v>5443685043.432512</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1546384875111965</v>
+        <v>0.2104124355325354</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02522976606420747</v>
+        <v>0.02355899546121605</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2285397726.012907</v>
+        <v>1871859284.513294</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1517106986156338</v>
+        <v>0.1296707527909243</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04228072242888716</v>
+        <v>0.04349502091026139</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2483544318.569783</v>
+        <v>1855062391.280831</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08199837974422333</v>
+        <v>0.09738291713970283</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05046272956607126</v>
+        <v>0.04630293169445138</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3449747048.027536</v>
+        <v>2428381038.343319</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1284469248133427</v>
+        <v>0.1132167219800661</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04850218657730072</v>
+        <v>0.04143482908574762</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1705175134.790092</v>
+        <v>2379512690.27269</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1181136902582257</v>
+        <v>0.1603090607504074</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01835875379081862</v>
+        <v>0.01900778018547418</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1489135770.588874</v>
+        <v>1447694739.367154</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1725973291971987</v>
+        <v>0.1864677504082032</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04396136690381423</v>
+        <v>0.03278393015657449</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2479729548.081042</v>
+        <v>2788182554.903806</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1186734755935456</v>
+        <v>0.1181461795903663</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03720221814178132</v>
+        <v>0.03321539307534913</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3327377513.414851</v>
+        <v>2532064768.607048</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1071754709483833</v>
+        <v>0.1004908244094362</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02600164629199185</v>
+        <v>0.03922888002538444</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1464731606.475606</v>
+        <v>1858820411.979762</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08539425834808513</v>
+        <v>0.1306666272429712</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0349013585044427</v>
+        <v>0.05319015742143775</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1547582904.480006</v>
+        <v>1478056777.847284</v>
       </c>
       <c r="F91" t="n">
-        <v>0.12308397865013</v>
+        <v>0.1240976010899576</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04515732615736243</v>
+        <v>0.04818323553154837</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2054651345.211273</v>
+        <v>2779966269.927191</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09791704466986788</v>
+        <v>0.07457994160733031</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04272882167693551</v>
+        <v>0.0294821315898853</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4666557964.002493</v>
+        <v>3121755637.594322</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09238463494536051</v>
+        <v>0.1106749732532347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0436181842947559</v>
+        <v>0.04293463748192432</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1599835518.403399</v>
+        <v>1652094944.9814</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1022812102641711</v>
+        <v>0.1524532287811302</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03313024031303013</v>
+        <v>0.03495407644147119</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2313440557.535279</v>
+        <v>2212089104.789684</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1303375996364536</v>
+        <v>0.09540650849694879</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05215815092792847</v>
+        <v>0.0365909830418218</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1906562159.318508</v>
+        <v>1529952210.388923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1259855238114689</v>
+        <v>0.08948416192957014</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04136897338798762</v>
+        <v>0.04452530457626441</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834180687.75366</v>
+        <v>3585008157.162541</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1421967951288654</v>
+        <v>0.1377730973185441</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0209232543824714</v>
+        <v>0.0265437000089658</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3320488089.662248</v>
+        <v>3608689971.888026</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08305621809322417</v>
+        <v>0.1259953962614324</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0199577607057985</v>
+        <v>0.0233200440879827</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3113133136.491314</v>
+        <v>2840920137.558905</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1240191871172156</v>
+        <v>0.1372485354415298</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02476656857361682</v>
+        <v>0.02806426612596848</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3386021480.614513</v>
+        <v>3435110809.381268</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1770590731487687</v>
+        <v>0.1312021549229209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02597597990016031</v>
+        <v>0.02229201648334742</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3094617018.185179</v>
+        <v>2236227087.504011</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941285727373114</v>
+        <v>0.1870552308822973</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03558989603279446</v>
+        <v>0.03539107181357621</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_142.xlsx
+++ b/output/fit_clients/fit_round_142.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1722153509.500648</v>
+        <v>2481070540.645104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1037877987913893</v>
+        <v>0.08068895110644389</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02749744863593284</v>
+        <v>0.03931904273906719</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2349154956.210533</v>
+        <v>2435283584.541485</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1534042983425953</v>
+        <v>0.1827531061053018</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03619093950806458</v>
+        <v>0.04471840554584312</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4623112225.346057</v>
+        <v>4982481259.558659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1232264037052629</v>
+        <v>0.1108363903035968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0372030018239183</v>
+        <v>0.02527015756241424</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>142</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3667394049.739392</v>
+        <v>3345978370.4085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07028352713567437</v>
+        <v>0.1054904404065513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04293675638986785</v>
+        <v>0.04299419609251185</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97.56777086795755</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2393764824.193978</v>
+        <v>2029229194.561637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1167991320417679</v>
+        <v>0.1424930129173836</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03644013837332089</v>
+        <v>0.04007278149610581</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2313411688.663736</v>
+        <v>2988110367.964225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09193284405672714</v>
+        <v>0.09003024421542398</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04643810164096879</v>
+        <v>0.03300068068740883</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2426907227.591235</v>
+        <v>3514045380.811089</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1941788091176298</v>
+        <v>0.209059677540108</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02179224026477696</v>
+        <v>0.02211868434926057</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>42</v>
+      </c>
+      <c r="J8" t="n">
+        <v>141</v>
+      </c>
+      <c r="K8" t="n">
+        <v>96.95543353501895</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2138893848.462326</v>
+        <v>1560437271.098572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1424085915662212</v>
+        <v>0.1875062124874629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0291391807331422</v>
+        <v>0.03600378348092316</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5097953323.379766</v>
+        <v>5067143588.64786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741043433563038</v>
+        <v>0.1640608321100955</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03703504058106488</v>
+        <v>0.03580801227693372</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>130</v>
+      </c>
+      <c r="J10" t="n">
+        <v>142</v>
+      </c>
+      <c r="K10" t="n">
+        <v>154.6856220972486</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2907305233.753492</v>
+        <v>3779958762.205225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1675373855078617</v>
+        <v>0.1806433510880956</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04516095179513768</v>
+        <v>0.03324315723529247</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>142</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2345881577.041054</v>
+        <v>2165805678.821384</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1917074974788314</v>
+        <v>0.1431707773052584</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03712122906033827</v>
+        <v>0.03657184723713539</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3637430502.562498</v>
+        <v>3396603900.82863</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06703560445342252</v>
+        <v>0.09425157061720214</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02324549964193216</v>
+        <v>0.02103429221691868</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>69</v>
+      </c>
+      <c r="J13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3549011256.634606</v>
+        <v>3017338732.018571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1508611216651496</v>
+        <v>0.1423123024378275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03154882526952819</v>
+        <v>0.04217734498732594</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1618131286.055354</v>
+        <v>1691408753.951911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07548388967879065</v>
+        <v>0.06659142159243177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04606158840364444</v>
+        <v>0.04421325799944885</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2547983499.428741</v>
+        <v>2883043045.054845</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0710437908761371</v>
+        <v>0.08369639965679042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04283279599258025</v>
+        <v>0.05138321974142704</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4214907455.702306</v>
+        <v>5089841882.302763</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1300710759457246</v>
+        <v>0.1336679302968515</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03618556760503987</v>
+        <v>0.03934365718503405</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>68</v>
+      </c>
+      <c r="J17" t="n">
+        <v>142</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3487091321.454822</v>
+        <v>3310289753.68673</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1362885469735421</v>
+        <v>0.1394394864483171</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02400928622360257</v>
+        <v>0.02521949401686723</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1308772717.653907</v>
+        <v>1310506740.533846</v>
       </c>
       <c r="F19" t="n">
-        <v>0.126901949610592</v>
+        <v>0.1483109876838816</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01875849309970333</v>
+        <v>0.02193696518983949</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1697598825.971836</v>
+        <v>2383918664.348085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1019514512182746</v>
+        <v>0.1394428264763364</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02491247580986071</v>
+        <v>0.02683800675102735</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2515220140.045485</v>
+        <v>2330907116.314763</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0808472375868001</v>
+        <v>0.09307370705982886</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03605777787460416</v>
+        <v>0.03111246449134909</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3771006400.775973</v>
+        <v>3918331366.515493</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338652734609178</v>
+        <v>0.1303245283439574</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05317475755898757</v>
+        <v>0.04699366989157353</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>36</v>
+      </c>
+      <c r="J22" t="n">
+        <v>142</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1525193793.642882</v>
+        <v>1213842261.67784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.131841250387156</v>
+        <v>0.1134838662870339</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04179203118661971</v>
+        <v>0.04700756567692849</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3176420744.576533</v>
+        <v>3849772227.356263</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1006151932113046</v>
+        <v>0.1422302389002404</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03511484119082326</v>
+        <v>0.02908806436705435</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>142</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>988209933.6622521</v>
+        <v>919875365.1665268</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09544917828374949</v>
+        <v>0.09856605328323861</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02955068188165313</v>
+        <v>0.02271678839881166</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1064317272.04671</v>
+        <v>1084271552.378908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08481463886933369</v>
+        <v>0.1247639791122379</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03291636778628745</v>
+        <v>0.038255715448033</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4082240289.50237</v>
+        <v>3742347875.445689</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09845793453455584</v>
+        <v>0.09503383582459834</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02615989962243373</v>
+        <v>0.02258551308480251</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>56</v>
+      </c>
+      <c r="J27" t="n">
+        <v>141</v>
+      </c>
+      <c r="K27" t="n">
+        <v>92.75060700159703</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2546779708.275376</v>
+        <v>2715406948.068829</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1175508204854852</v>
+        <v>0.103710909958773</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04057105161861438</v>
+        <v>0.03412447261957506</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5344356850.748631</v>
+        <v>4400343486.0048</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1160049486692294</v>
+        <v>0.09603192977235396</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03085714674727129</v>
+        <v>0.03090349423087891</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>131</v>
+      </c>
+      <c r="J29" t="n">
+        <v>142</v>
+      </c>
+      <c r="K29" t="n">
+        <v>165.2777099041232</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1497066330.706007</v>
+        <v>1704111950.638933</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1210759372321092</v>
+        <v>0.0874510260389232</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02802865024983761</v>
+        <v>0.03759242072713397</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1436059979.962868</v>
+        <v>1336861525.132243</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1024748859350196</v>
+        <v>0.06845894374426276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03719059072866443</v>
+        <v>0.0519902804782431</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1297738851.327004</v>
+        <v>1256247562.987432</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07380957890480469</v>
+        <v>0.09137243722630864</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03374806929303673</v>
+        <v>0.03228840782397377</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2808958231.006222</v>
+        <v>2155717442.925557</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467635374648169</v>
+        <v>0.1722445537979027</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05447953592982969</v>
+        <v>0.04928685024358845</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1384316263.961293</v>
+        <v>1264943973.18886</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1120357393715074</v>
+        <v>0.07844206277725257</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02130763506945589</v>
+        <v>0.01978651159045535</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>892589815.0927676</v>
+        <v>1040853266.261621</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1148489582311009</v>
+        <v>0.07814788498265278</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0428928327491972</v>
+        <v>0.03018982142747454</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2177689106.873429</v>
+        <v>2506622253.607276</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1561265414331403</v>
+        <v>0.1203613296975964</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02391190106587683</v>
+        <v>0.02797641277884257</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2558465329.026878</v>
+        <v>2635717010.516523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009888826397274</v>
+        <v>0.1001854304948162</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04130541497670927</v>
+        <v>0.03865908730577908</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1365420471.758881</v>
+        <v>2002394042.833905</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08720591806619736</v>
+        <v>0.09585695354640879</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02595696250622074</v>
+        <v>0.03861106393027099</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1643144869.553196</v>
+        <v>1416438295.250103</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1805519475236655</v>
+        <v>0.1253865263146451</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02153049178463933</v>
+        <v>0.02377284260708185</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1502938511.854866</v>
+        <v>1126034904.991897</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1149045002505849</v>
+        <v>0.1202413960631917</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05976474945076123</v>
+        <v>0.05923113969991005</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1769123056.675995</v>
+        <v>2824954992.388732</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1317616407419971</v>
+        <v>0.1503575447332775</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04337604453187043</v>
+        <v>0.02959731234931152</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4042004799.66369</v>
+        <v>3887388578.558129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.117714085683257</v>
+        <v>0.09872570729710996</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03605348467671902</v>
+        <v>0.04551538103842288</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>52</v>
+      </c>
+      <c r="J42" t="n">
+        <v>142</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2507069370.809237</v>
+        <v>2923197290.470619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1879585171262281</v>
+        <v>0.1853707153623138</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02176685889814853</v>
+        <v>0.01741240061211561</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1592683794.88331</v>
+        <v>1460899570.069503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07867586305780985</v>
+        <v>0.0854420688553315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02868429188382152</v>
+        <v>0.02413337027245254</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2497419451.664869</v>
+        <v>1608097316.901504</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1764425751292603</v>
+        <v>0.1558323719079346</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04076185479391028</v>
+        <v>0.0523785243046545</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3706657473.988149</v>
+        <v>5540824101.056473</v>
       </c>
       <c r="F46" t="n">
-        <v>0.11080386929252</v>
+        <v>0.1516192561912912</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03801085323534618</v>
+        <v>0.03752664050743101</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>80</v>
+      </c>
+      <c r="J46" t="n">
+        <v>142</v>
+      </c>
+      <c r="K46" t="n">
+        <v>142.9577129301544</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4780235175.546136</v>
+        <v>4246208265.153374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1906714732337092</v>
+        <v>0.1702613976477489</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05379702416523371</v>
+        <v>0.04110508936493194</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>63</v>
+      </c>
+      <c r="J47" t="n">
+        <v>141</v>
+      </c>
+      <c r="K47" t="n">
+        <v>116.6066564400882</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3345440601.475247</v>
+        <v>4383286419.454954</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08955265083791879</v>
+        <v>0.0976896141410028</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03656423339752313</v>
+        <v>0.02669737957160312</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>59</v>
+      </c>
+      <c r="J48" t="n">
+        <v>142</v>
+      </c>
+      <c r="K48" t="n">
+        <v>144.3543689856939</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1306301999.410157</v>
+        <v>1858292821.973897</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1448067304248375</v>
+        <v>0.1381959918830297</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03468317011975745</v>
+        <v>0.03185920292024567</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4113144629.085449</v>
+        <v>3166664228.127641</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1777552957681079</v>
+        <v>0.1709560354769982</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0481668661676732</v>
+        <v>0.04899719023728607</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200923874.805761</v>
+        <v>1520281979.914371</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1734784143607516</v>
+        <v>0.1529859140142719</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0520330556052791</v>
+        <v>0.04876134032292998</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3692282983.467361</v>
+        <v>5042274460.56982</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09788974213509333</v>
+        <v>0.1060746550325277</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06202068576440799</v>
+        <v>0.05989446904614364</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>106</v>
+      </c>
+      <c r="J52" t="n">
+        <v>142</v>
+      </c>
+      <c r="K52" t="n">
+        <v>144.1584308667526</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3610948023.463918</v>
+        <v>3062668482.460785</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1763060532217955</v>
+        <v>0.1827612562425537</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0243638938798069</v>
+        <v>0.03185661288340223</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4817251666.931078</v>
+        <v>4775469317.47621</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1244941483323477</v>
+        <v>0.1244153955531736</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03378191783808909</v>
+        <v>0.03364844386147808</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>65</v>
+      </c>
+      <c r="J54" t="n">
+        <v>142</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3633273191.875661</v>
+        <v>3781134620.636085</v>
       </c>
       <c r="F55" t="n">
-        <v>0.181530938955737</v>
+        <v>0.2099455619015111</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02518749100804208</v>
+        <v>0.0296254904290993</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>142</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1180158289.288398</v>
+        <v>1801766066.356946</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1584739508248302</v>
+        <v>0.1295505305353222</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04652095172711058</v>
+        <v>0.05403624386462591</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3268767867.92623</v>
+        <v>4577605405.645602</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1416365549293804</v>
+        <v>0.1504267189961001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01903489222493149</v>
+        <v>0.01715561658958746</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>57</v>
+      </c>
+      <c r="J57" t="n">
+        <v>141</v>
+      </c>
+      <c r="K57" t="n">
+        <v>136.9339386771813</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1632949975.00303</v>
+        <v>1526024874.975575</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1552930679613986</v>
+        <v>0.1911111516282849</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02759390587664965</v>
+        <v>0.029261638445653</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4980966469.847862</v>
+        <v>3838731538.333254</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09271173691458263</v>
+        <v>0.1069286003400267</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04302737383526845</v>
+        <v>0.04398946830440026</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>69</v>
+      </c>
+      <c r="J59" t="n">
+        <v>141</v>
+      </c>
+      <c r="K59" t="n">
+        <v>108.5461277052486</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2307476848.199754</v>
+        <v>2431025713.797201</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1592093916676029</v>
+        <v>0.1406142039969971</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02486036754850646</v>
+        <v>0.02831265075136854</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2137067389.656909</v>
+        <v>2614214910.416028</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1778581467656477</v>
+        <v>0.1539527148191061</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02110635409076097</v>
+        <v>0.02827002548888718</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1948792843.795562</v>
+        <v>1831956665.125515</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1174372184031079</v>
+        <v>0.1342457120828727</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04282630886929951</v>
+        <v>0.04845624788511649</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5487842382.614457</v>
+        <v>3985512202.267259</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07664303313413785</v>
+        <v>0.08043385714566649</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04129516800878137</v>
+        <v>0.03411365267029191</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>69</v>
+      </c>
+      <c r="J63" t="n">
+        <v>142</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4127735709.486259</v>
+        <v>4440785213.677223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1612238429310185</v>
+        <v>0.1436394721171733</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02983807719452574</v>
+        <v>0.03466168781277508</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>70</v>
+      </c>
+      <c r="J64" t="n">
+        <v>142</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3990305628.28056</v>
+        <v>3624131207.434757</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1418528264023224</v>
+        <v>0.1513588877885583</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02827164520075321</v>
+        <v>0.02941912391526564</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>119</v>
+      </c>
+      <c r="J65" t="n">
+        <v>141</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.2862575254224</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3979511816.538205</v>
+        <v>3545960134.61477</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1457530165204645</v>
+        <v>0.1313086603383597</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04638079903362896</v>
+        <v>0.03145512343717289</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>70</v>
+      </c>
+      <c r="J66" t="n">
+        <v>141</v>
+      </c>
+      <c r="K66" t="n">
+        <v>91.66609800364189</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3290506243.962848</v>
+        <v>3344771354.495414</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1023759335787446</v>
+        <v>0.07214086018207043</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04786494229548309</v>
+        <v>0.03376850327146991</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3757148498.485294</v>
+        <v>4644616012.50265</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1284043294068029</v>
+        <v>0.0998478551811785</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0381364867337249</v>
+        <v>0.05042609960423691</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>71</v>
+      </c>
+      <c r="J68" t="n">
+        <v>142</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2397396635.199811</v>
+        <v>1726395725.65283</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1363534542574115</v>
+        <v>0.1510372135442179</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04338529894680881</v>
+        <v>0.05218332627788861</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3189508294.75722</v>
+        <v>2908062795.611017</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06755560517261207</v>
+        <v>0.09521912711245842</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03212371641555809</v>
+        <v>0.04136886671440135</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>18</v>
+      </c>
+      <c r="J70" t="n">
+        <v>140</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2942,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4529934839.067182</v>
+        <v>4426640076.719478</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1826090918499171</v>
+        <v>0.1446712987056146</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02225853561632899</v>
+        <v>0.0297509615672612</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>113</v>
+      </c>
+      <c r="J71" t="n">
+        <v>142</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2054621785.120269</v>
+        <v>1591714839.460718</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08422399633181649</v>
+        <v>0.09288032864888693</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04030113395917386</v>
+        <v>0.0397348953430058</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3559659850.092219</v>
+        <v>2942890018.766641</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0982532301095793</v>
+        <v>0.1079276964398198</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05018891127786452</v>
+        <v>0.04430286349151711</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3031294843.186284</v>
+        <v>3740549661.251089</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166975870315076</v>
+        <v>0.1595458353465102</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02524079307088258</v>
+        <v>0.02763592046585343</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1558280101.215266</v>
+        <v>1573829157.565337</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1339895292961034</v>
+        <v>0.1465874874780442</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0260546579595679</v>
+        <v>0.02899511497775318</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4378867442.984505</v>
+        <v>3426988112.813118</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1138940029292346</v>
+        <v>0.1183414697908993</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02119886517116144</v>
+        <v>0.02127727316176057</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>65</v>
+      </c>
+      <c r="J76" t="n">
+        <v>141</v>
+      </c>
+      <c r="K76" t="n">
+        <v>75.2269644713849</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2194312433.088644</v>
+        <v>1686895153.519031</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1275513694247212</v>
+        <v>0.1166352020822903</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02984990520326514</v>
+        <v>0.02370732856339038</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4729038953.750692</v>
+        <v>3907946275.265808</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1108293631638664</v>
+        <v>0.08971538868601148</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05497069158225527</v>
+        <v>0.05047635223673193</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>69</v>
+      </c>
+      <c r="J78" t="n">
+        <v>142</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1407026624.467282</v>
+        <v>1818063703.580642</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1076507103349122</v>
+        <v>0.1422966269891218</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03442413890482864</v>
+        <v>0.04066799386691813</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4642707194.836064</v>
+        <v>5524560116.007287</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08460345073099433</v>
+        <v>0.1046764577806775</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03062942759329821</v>
+        <v>0.02355181070312006</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>69</v>
+      </c>
+      <c r="J80" t="n">
+        <v>141</v>
+      </c>
+      <c r="K80" t="n">
+        <v>106.4032247472406</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5082081747.424731</v>
+        <v>4384316367.862259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09453873522026288</v>
+        <v>0.1060029439601332</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02959709422250362</v>
+        <v>0.03084515438828943</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>65</v>
+      </c>
+      <c r="J81" t="n">
+        <v>141</v>
+      </c>
+      <c r="K81" t="n">
+        <v>123.3102159950792</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5443685043.432512</v>
+        <v>3536436480.941465</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2104124355325354</v>
+        <v>0.1347959203070549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02355899546121605</v>
+        <v>0.02712114311831235</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>102</v>
+      </c>
+      <c r="J82" t="n">
+        <v>141</v>
+      </c>
+      <c r="K82" t="n">
+        <v>104.5954343849927</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1871859284.513294</v>
+        <v>1643866190.511434</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1296707527909243</v>
+        <v>0.1272416230337528</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04349502091026139</v>
+        <v>0.03585050376040096</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1855062391.280831</v>
+        <v>2544491088.078482</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09738291713970283</v>
+        <v>0.09331683463990628</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04630293169445138</v>
+        <v>0.05247376448934417</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2428381038.343319</v>
+        <v>2328282367.179244</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1132167219800661</v>
+        <v>0.1524671904962189</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04143482908574762</v>
+        <v>0.05424825288160422</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>140</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2379512690.27269</v>
+        <v>2330022010.447311</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1603090607504074</v>
+        <v>0.1086465630650144</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01900778018547418</v>
+        <v>0.02176163679983201</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447694739.367154</v>
+        <v>1265123195.405199</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1864677504082032</v>
+        <v>0.1874566723666352</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03278393015657449</v>
+        <v>0.03548530833551753</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2788182554.903806</v>
+        <v>2921876744.52977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1181461795903663</v>
+        <v>0.1394381895244734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03321539307534913</v>
+        <v>0.03711912714019407</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2532064768.607048</v>
+        <v>2673744378.433561</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1004908244094362</v>
+        <v>0.1419138945383469</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03922888002538444</v>
+        <v>0.03660052538974963</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1858820411.979762</v>
+        <v>2148696637.923209</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1306666272429712</v>
+        <v>0.1291383631230848</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05319015742143775</v>
+        <v>0.04878111165085477</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1478056777.847284</v>
+        <v>1973652408.791092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1240976010899576</v>
+        <v>0.1911166441231343</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04818323553154837</v>
+        <v>0.05641504497060129</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2779966269.927191</v>
+        <v>2596515787.577339</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07457994160733031</v>
+        <v>0.07475000782411721</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0294821315898853</v>
+        <v>0.04509893428280275</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3720,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3121755637.594322</v>
+        <v>4990366256.976484</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1106749732532347</v>
+        <v>0.1207231315965989</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04293463748192432</v>
+        <v>0.04233584085721423</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>64</v>
+      </c>
+      <c r="J93" t="n">
+        <v>141</v>
+      </c>
+      <c r="K93" t="n">
+        <v>134.4531449301193</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1652094944.9814</v>
+        <v>1576231601.630934</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1524532287811302</v>
+        <v>0.1681923647730885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03495407644147119</v>
+        <v>0.03988970330899202</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2212089104.789684</v>
+        <v>2398218572.582762</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09540650849694879</v>
+        <v>0.1073662113542368</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0365909830418218</v>
+        <v>0.04676371138290703</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1529952210.388923</v>
+        <v>1717329522.534743</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08948416192957014</v>
+        <v>0.08860697525441044</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04452530457626441</v>
+        <v>0.03485033537176362</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3585008157.162541</v>
+        <v>4777953443.626964</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1377730973185441</v>
+        <v>0.1430229612940815</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0265437000089658</v>
+        <v>0.02901962412773374</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>68</v>
+      </c>
+      <c r="J97" t="n">
+        <v>141</v>
+      </c>
+      <c r="K97" t="n">
+        <v>139.7148879102534</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3608689971.888026</v>
+        <v>3042504554.676819</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259953962614324</v>
+        <v>0.08031962645828369</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0233200440879827</v>
+        <v>0.03021226708686284</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>33</v>
+      </c>
+      <c r="J98" t="n">
+        <v>139</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2840920137.558905</v>
+        <v>2943980337.002147</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1372485354415298</v>
+        <v>0.1393623143051487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02806426612596848</v>
+        <v>0.02861062544030108</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3435110809.381268</v>
+        <v>4233302326.036577</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1312021549229209</v>
+        <v>0.1678577152063632</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02229201648334742</v>
+        <v>0.02205055700357732</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>58</v>
+      </c>
+      <c r="J100" t="n">
+        <v>142</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2236227087.504011</v>
+        <v>3119734432.238609</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1870552308822973</v>
+        <v>0.1913553563365321</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03539107181357621</v>
+        <v>0.04230147330106744</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>141</v>
+      </c>
+      <c r="K101" t="n">
+        <v>73.56667108956231</v>
       </c>
     </row>
   </sheetData>
